--- a/Excel/quality_preferences.xlsx
+++ b/Excel/quality_preferences.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Websites\audacity-mr\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -127,24 +132,12 @@
     <t>For more detailed information on dither see the the Dither page.</t>
   </si>
   <si>
-    <t>गुणवत्ता प्राधान्ये - धैर्य मॅन्युअल</t>
-  </si>
-  <si>
     <t>गुणवत्ता प्राधान्ये</t>
   </si>
   <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
     <t>याद्वारे प्रवेशः संपादित करा&gt; प्राधान्ये&gt; गुणवत्ता</t>
   </si>
   <si>
-    <t>(मॅक ऑडॅसिटी वर&gt; प्राधान्ये&gt; गुणवत्ता)</t>
-  </si>
-  <si>
     <t>इतर प्राधान्यांसाठी डाव्या स्तंभात क्लिक करा</t>
   </si>
   <si>
@@ -154,24 +147,6 @@
     <t>नमुना</t>
   </si>
   <si>
-    <t>हे पॅनेल डीफॉल्ट नमुना दर आणि डीफॉल्ट नमुना स्वरूप सेट करते.</t>
-  </si>
-  <si>
-    <t>आपण डीफॉल्ट सेटिंग्जसह रहा, अशी जोरदार शिफारस केली जाते.</t>
-  </si>
-  <si>
-    <t>डीफॉल्ट नमुना दर: यामुळे नमुना दर निश्चित केला जातो जो प्रत्येक वेळी ऑडॅसिटी सुरू होताना आणि नवीन प्रकल्प विंडो उघडल्यावर वापरला जाईल.</t>
-  </si>
-  <si>
-    <t>हे 13 नमुना दरांची निवड देते.</t>
-  </si>
-  <si>
-    <t>सामान्यत: आपणास 44100 हर्ट्जचे डीफॉल्ट मूल्य वापरायचे आहे, जे मनुष्यांनी ऐकू शकणार्‍या सर्व वारंवारता पुनरुत्पादित करू शकते (22050 हर्ट्झ पर्यंत) आणि ऑडिओ सीडीसाठी हे मानक आहे. काही अन्य बीस्पोक रेट निवडण्यासाठी, ड्रॉपडाऊनमधील "अन्य ..." वर क्लिक करा आणि ड्रॉपडाऊनच्या उजवीकडील बॉक्समध्ये आपला दर टाइप करा. 44100 हर्ट्ज ते 96000 हर्ट्झ दरम्यानचे नमुने दर उच्च गुणवत्तेचे उत्पादन करू शकतात परंतु डिस्क जागेचा वेगाने वाढणारा वापर आणि हळू संगणकांवर सोडण्याच्या रेकॉर्डिंगच्या जोखीमच्या तुलनेत गुणवत्ता फायदे वाढत्या प्रमाणात कमी आहेत. 192000 हर्ट्झ म्युझिक रेकॉर्डिंगमध्ये प्रचंड कंपनसंख्या असलेल्या (ध्वनिलहरी) प्लेबॅक विकृती असू शकतात ज्यामुळे त्यांना कमी दरात रेकॉर्डिंगपेक्षा निकृष्ट केले जाईल. पहा</t>
-  </si>
-  <si>
-    <t>"24/192 संगीत डाउनलोड्स खूप मूर्ख आहेत खरोखर" गुंतलेल्या मुद्द्यांच्या तांत्रिक चर्चेसाठी. अतिशय उच्च दरामध्ये अल्ट्रासोनिक वाइल्डलाइफ रेकॉर्डिंग आणि हाय-स्पीड टेप कॅप्चरिंगसारखे काही खास उपयोग आहेत. या पसंती सेटिंगमध्ये बदल केल्याने आपल्या प्रकल्पाचा प्रकल्प दर बदलला जाणार नाही, तर आपला नवीन प्रकल्प नमुना दर वापरण्याची आपली इच्छा असल्यास आपण रीसेट करणे आवश्यक आहे ते सिलेक्शन टूलबार मध्ये आहे.</t>
-  </si>
-  <si>
     <t>आपण डीफॉल्ट दर न बदलता आपल्या वर्तमान प्रकल्पाच्या नमुना दरामध्ये बदल करू इच्छित असल्यास डावीकडील प्रकल्प दर ड्रॉपडाउन उघडा</t>
   </si>
   <si>
@@ -230,13 +205,43 @@
   </si>
   <si>
     <t>दिनांकडील अधिक तपशीलवार माहितीसाठी डाईट पृष्ठ पहा.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">गुणवत्ता प्राधान्ये - ओड्यासिटी माहितीपुस्तिका </t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकास माहितीपुस्तिकेकडून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशक, शोधा</t>
+  </si>
+  <si>
+    <t>(मॅक ओड्यासिटी वर&gt; प्राधान्ये&gt; गुणवत्ता)</t>
+  </si>
+  <si>
+    <t>आपण पूर्वनियोजित सामायोजनासह रहा, अशी जोरदार शिफारस केली जाते.</t>
+  </si>
+  <si>
+    <t>हे पॅनेल पूर्वनियोजित नमुना दर आणि पूर्वनियोजित नमुना स्वरूप जतन करते.</t>
+  </si>
+  <si>
+    <t>पूर्वनियोजित नमुना दर: यामुळे नमुना दर निश्चित केला जातो जो प्रत्येक वेळी ओड्यासिटी सुरू होताना आणि नवीन प्रकल्प उघडल्यावर वापरला जाईल.</t>
+  </si>
+  <si>
+    <t>हे १३ नमुना दरांची निवड देते.</t>
+  </si>
+  <si>
+    <t>सामान्यत: आपणास ४४१०० हर्ट्जचे पूर्वनियोजित मूल्य वापरायचे आहे, जे मनुष्यांनी ऐकू शकणार्‍या सर्व वारंवारता पुनरुत्पादित करू शकते (२२०५० हर्ट्झ पर्यंत) आणि ध्वनी सीडीसाठी हे मानक आहे. काही अन्य बीस्पोक रेट निवडण्यासाठी, ड्रॉपडाऊनमधील "अन्य ..." वर क्लिक करा आणि ड्रॉपडाऊनच्या उजवीकडील बॉक्समध्ये आपला दर लिहा ४४१००० हर्ट्ज ९६०००० हर्ट्झ दरम्यानचे नमुने दर उच्च गुणवत्तेचे उत्पादन करू शकतात परंतु डिस्क जागेचा वेगाने वाढणारा वापर आणि हळू संगणकांवर सोडण्याच्या मुद्रणाच्या जोखीमच्या तुलनेत गुणवत्ता फायदे वाढत्या प्रमाणात कमी आहेत.१९२००० हर्ट्झ ध्वनी मुद्रणामध्ये प्रचंड कंपनसंख्या असलेल्या (ध्वनिलहरी) प्लेबॅक विकृती असू शकतात ज्यामुळे त्यांना कमी दरात मुद्रणापेक्षा निकृष्ट केले जाईल. पहा</t>
+  </si>
+  <si>
+    <t>"२४/१९२ संगीत डाउनलोड्स खूप मूर्ख आहेत खरोखर" गुंतलेल्या मुद्द्यांच्या तांत्रिक चर्चेसाठी. अतिशय उच्च दरामध्ये अल्ट्रासोनिक वाइल्डलाइफ रेकॉर्डिंग आणि हाय-स्पीड टेप कॅप्चरिंगसारखे काही खास उपयोग आहेत. या पसंती सेटिंगमध्ये बदल केल्याने आपल्या प्रकल्पाचा प्रकल्प दर बदलला जाणार नाही, तर आपला नवीन प्रकल्प नमुना दर वापरण्याची आपली इच्छा असल्यास आपण रीसेट करणे आवश्यक आहे ते सिलेक्शन टूलबार मध्ये आहे.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +256,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -288,17 +299,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -345,7 +369,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,9 +401,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,407 +612,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="115.140625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="C22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="C29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
-      <c r="C32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="C32" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="C33" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="C34" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="C35" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
-      <c r="C36" t="s">
-        <v>71</v>
+      <c r="C36" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>